--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09243566666666668</v>
+        <v>0.2329866666666667</v>
       </c>
       <c r="H2">
-        <v>0.277307</v>
+        <v>0.69896</v>
       </c>
       <c r="I2">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="J2">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,16 +564,16 @@
         <v>0.9549187448097095</v>
       </c>
       <c r="Q2">
-        <v>0.03387123214855556</v>
+        <v>0.08537338192888889</v>
       </c>
       <c r="R2">
-        <v>0.304841089337</v>
+        <v>0.76836043736</v>
       </c>
       <c r="S2">
-        <v>0.3649365886143677</v>
+        <v>0.4685237314495944</v>
       </c>
       <c r="T2">
-        <v>0.3649365886143677</v>
+        <v>0.4685237314495944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09243566666666668</v>
+        <v>0.2329866666666667</v>
       </c>
       <c r="H3">
-        <v>0.277307</v>
+        <v>0.69896</v>
       </c>
       <c r="I3">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="J3">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,25 +617,25 @@
         <v>0.017299</v>
       </c>
       <c r="N3">
-        <v>0.05189700000000001</v>
+        <v>0.051897</v>
       </c>
       <c r="O3">
-        <v>0.04508125519029038</v>
+        <v>0.04508125519029037</v>
       </c>
       <c r="P3">
-        <v>0.04508125519029038</v>
+        <v>0.04508125519029037</v>
       </c>
       <c r="Q3">
-        <v>0.001599044597666667</v>
+        <v>0.004030436346666667</v>
       </c>
       <c r="R3">
-        <v>0.014391401379</v>
+        <v>0.03627392712</v>
       </c>
       <c r="S3">
-        <v>0.01722848102942701</v>
+        <v>0.02211878027841545</v>
       </c>
       <c r="T3">
-        <v>0.01722848102942701</v>
+        <v>0.02211878027841545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,13 +643,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.149438</v>
+        <v>0.09243566666666668</v>
       </c>
       <c r="H4">
-        <v>0.448314</v>
+        <v>0.277307</v>
       </c>
       <c r="I4">
-        <v>0.6178349303562052</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="J4">
-        <v>0.6178349303562053</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,16 +688,16 @@
         <v>0.9549187448097095</v>
       </c>
       <c r="Q4">
-        <v>0.05475861615266667</v>
+        <v>0.03387123214855556</v>
       </c>
       <c r="R4">
-        <v>0.492827545374</v>
+        <v>0.304841089337</v>
       </c>
       <c r="S4">
-        <v>0.5899821561953418</v>
+        <v>0.1858831841551629</v>
       </c>
       <c r="T4">
-        <v>0.5899821561953419</v>
+        <v>0.1858831841551629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -717,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.149438</v>
+        <v>0.09243566666666668</v>
       </c>
       <c r="H5">
-        <v>0.448314</v>
+        <v>0.277307</v>
       </c>
       <c r="I5">
-        <v>0.6178349303562052</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="J5">
-        <v>0.6178349303562053</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,25 +741,149 @@
         <v>0.017299</v>
       </c>
       <c r="N5">
-        <v>0.05189700000000001</v>
+        <v>0.051897</v>
       </c>
       <c r="O5">
-        <v>0.04508125519029038</v>
+        <v>0.04508125519029037</v>
       </c>
       <c r="P5">
-        <v>0.04508125519029038</v>
+        <v>0.04508125519029037</v>
       </c>
       <c r="Q5">
+        <v>0.001599044597666667</v>
+      </c>
+      <c r="R5">
+        <v>0.014391401379</v>
+      </c>
+      <c r="S5">
+        <v>0.00877545582389057</v>
+      </c>
+      <c r="T5">
+        <v>0.008775455823890572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.149438</v>
+      </c>
+      <c r="H6">
+        <v>0.448314</v>
+      </c>
+      <c r="I6">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="J6">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3664303333333334</v>
+      </c>
+      <c r="N6">
+        <v>1.099291</v>
+      </c>
+      <c r="O6">
+        <v>0.9549187448097096</v>
+      </c>
+      <c r="P6">
+        <v>0.9549187448097095</v>
+      </c>
+      <c r="Q6">
+        <v>0.05475861615266667</v>
+      </c>
+      <c r="R6">
+        <v>0.492827545374</v>
+      </c>
+      <c r="S6">
+        <v>0.3005118292049523</v>
+      </c>
+      <c r="T6">
+        <v>0.3005118292049523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.149438</v>
+      </c>
+      <c r="H7">
+        <v>0.448314</v>
+      </c>
+      <c r="I7">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="J7">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.017299</v>
+      </c>
+      <c r="N7">
+        <v>0.051897</v>
+      </c>
+      <c r="O7">
+        <v>0.04508125519029037</v>
+      </c>
+      <c r="P7">
+        <v>0.04508125519029037</v>
+      </c>
+      <c r="Q7">
         <v>0.002585127962</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>0.023266151658</v>
       </c>
-      <c r="S5">
-        <v>0.02785277416086337</v>
-      </c>
-      <c r="T5">
-        <v>0.02785277416086337</v>
+      <c r="S7">
+        <v>0.01418701908798435</v>
+      </c>
+      <c r="T7">
+        <v>0.01418701908798436</v>
       </c>
     </row>
   </sheetData>
